--- a/data/pca/factorExposure/factorExposure_2008-12-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-04.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01948109651592409</v>
+        <v>-0.01805328270621951</v>
       </c>
       <c r="C2">
-        <v>0.0129953773982785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01525627308578354</v>
+      </c>
+      <c r="D2">
+        <v>-0.02127662105677566</v>
+      </c>
+      <c r="E2">
+        <v>-0.009363244087711877</v>
+      </c>
+      <c r="F2">
+        <v>0.003735847116398979</v>
+      </c>
+      <c r="G2">
+        <v>0.02807515049759422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08070146648301875</v>
+        <v>-0.08431075271142451</v>
       </c>
       <c r="C4">
-        <v>0.08754020424134357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08961218581983366</v>
+      </c>
+      <c r="D4">
+        <v>0.01384147143477033</v>
+      </c>
+      <c r="E4">
+        <v>-0.0312109076781859</v>
+      </c>
+      <c r="F4">
+        <v>-0.1029428849863624</v>
+      </c>
+      <c r="G4">
+        <v>-0.04729552374731164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005266621187789858</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001558496169369194</v>
+      </c>
+      <c r="D5">
+        <v>0.001702252642895602</v>
+      </c>
+      <c r="E5">
+        <v>0.004662281532315568</v>
+      </c>
+      <c r="F5">
+        <v>0.003406883906545222</v>
+      </c>
+      <c r="G5">
+        <v>-0.0008463901236690454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1670149799868996</v>
+        <v>-0.1685660881747278</v>
       </c>
       <c r="C6">
-        <v>-0.01144481424609148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.004074017770246295</v>
+      </c>
+      <c r="D6">
+        <v>0.07059750159945995</v>
+      </c>
+      <c r="E6">
+        <v>0.06928497347626869</v>
+      </c>
+      <c r="F6">
+        <v>-0.02195305471705862</v>
+      </c>
+      <c r="G6">
+        <v>0.1350148214331153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05151494117670452</v>
+        <v>-0.0537130333645857</v>
       </c>
       <c r="C7">
-        <v>0.05864616317729184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06054007292247414</v>
+      </c>
+      <c r="D7">
+        <v>-0.003243244315124149</v>
+      </c>
+      <c r="E7">
+        <v>-0.09020705039731905</v>
+      </c>
+      <c r="F7">
+        <v>-0.08680050941939074</v>
+      </c>
+      <c r="G7">
+        <v>-0.02132268591145081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04942667849463356</v>
+        <v>-0.04781590687739379</v>
       </c>
       <c r="C8">
-        <v>0.058762808684512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05629850947742557</v>
+      </c>
+      <c r="D8">
+        <v>-0.04621761990891721</v>
+      </c>
+      <c r="E8">
+        <v>-0.03100804458522743</v>
+      </c>
+      <c r="F8">
+        <v>0.01955733502481631</v>
+      </c>
+      <c r="G8">
+        <v>0.002992618099697321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05660520714299299</v>
+        <v>-0.06197201594929928</v>
       </c>
       <c r="C9">
-        <v>0.09564673268501285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09543972824438092</v>
+      </c>
+      <c r="D9">
+        <v>0.01785973680622783</v>
+      </c>
+      <c r="E9">
+        <v>-0.02784277745670344</v>
+      </c>
+      <c r="F9">
+        <v>-0.1071647207636843</v>
+      </c>
+      <c r="G9">
+        <v>-0.05871005334242758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1201353483055741</v>
+        <v>-0.1040678864187447</v>
       </c>
       <c r="C10">
-        <v>-0.1596496054242047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1420878076219023</v>
+      </c>
+      <c r="D10">
+        <v>-0.0794652551296757</v>
+      </c>
+      <c r="E10">
+        <v>-0.02799597549840896</v>
+      </c>
+      <c r="F10">
+        <v>0.05317966219525492</v>
+      </c>
+      <c r="G10">
+        <v>-0.06428382954853155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08038015743270856</v>
+        <v>-0.07745750151469034</v>
       </c>
       <c r="C11">
-        <v>0.1372324542787733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1358609138848245</v>
+      </c>
+      <c r="D11">
+        <v>-0.01514488716329075</v>
+      </c>
+      <c r="E11">
+        <v>-0.03501806946859396</v>
+      </c>
+      <c r="F11">
+        <v>-0.08014124791759396</v>
+      </c>
+      <c r="G11">
+        <v>-0.09809256942907146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08029353515436206</v>
+        <v>-0.07613082856514461</v>
       </c>
       <c r="C12">
-        <v>0.160794669246039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1585669298131146</v>
+      </c>
+      <c r="D12">
+        <v>-0.008429103286603162</v>
+      </c>
+      <c r="E12">
+        <v>-0.06174335691294999</v>
+      </c>
+      <c r="F12">
+        <v>-0.07030278657613584</v>
+      </c>
+      <c r="G12">
+        <v>-0.09639441872431329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04228729886564161</v>
+        <v>-0.04460689618625222</v>
       </c>
       <c r="C13">
-        <v>0.06997894953225041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.0743817992162899</v>
+      </c>
+      <c r="D13">
+        <v>-0.02077183538709994</v>
+      </c>
+      <c r="E13">
+        <v>-0.06868627456454322</v>
+      </c>
+      <c r="F13">
+        <v>-0.06173446673531122</v>
+      </c>
+      <c r="G13">
+        <v>-0.02967478308149576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01754432035552512</v>
+        <v>-0.02004673885335767</v>
       </c>
       <c r="C14">
-        <v>0.04697580462979414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.050127393748189</v>
+      </c>
+      <c r="D14">
+        <v>-0.0317072935013941</v>
+      </c>
+      <c r="E14">
+        <v>-0.03206957463697573</v>
+      </c>
+      <c r="F14">
+        <v>-0.05797470263606224</v>
+      </c>
+      <c r="G14">
+        <v>-0.05776303578591319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03049376487934947</v>
+        <v>-0.03080732196490181</v>
       </c>
       <c r="C15">
-        <v>0.06496544261223122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06285854110962757</v>
+      </c>
+      <c r="D15">
+        <v>0.02580501143683735</v>
+      </c>
+      <c r="E15">
+        <v>-0.03849597826940156</v>
+      </c>
+      <c r="F15">
+        <v>-0.03562760629445046</v>
+      </c>
+      <c r="G15">
+        <v>-0.01906375549209497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05902353305662131</v>
+        <v>-0.05664336839631394</v>
       </c>
       <c r="C16">
-        <v>0.1575736045280675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1568869448665967</v>
+      </c>
+      <c r="D16">
+        <v>-0.01207344904454188</v>
+      </c>
+      <c r="E16">
+        <v>-0.01736397174928885</v>
+      </c>
+      <c r="F16">
+        <v>-0.07306621225341353</v>
+      </c>
+      <c r="G16">
+        <v>-0.1211530597982178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.009010732049223895</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004194575751896874</v>
+      </c>
+      <c r="D17">
+        <v>0.004997215667886394</v>
+      </c>
+      <c r="E17">
+        <v>-0.006778879324844503</v>
+      </c>
+      <c r="F17">
+        <v>0.01675000008703251</v>
+      </c>
+      <c r="G17">
+        <v>-0.004629731876746634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04858424563715997</v>
+        <v>-0.05870542924995338</v>
       </c>
       <c r="C18">
-        <v>0.05492756898868009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04814593632832519</v>
+      </c>
+      <c r="D18">
+        <v>0.03470561253628969</v>
+      </c>
+      <c r="E18">
+        <v>0.05584831463773011</v>
+      </c>
+      <c r="F18">
+        <v>0.04779444739978873</v>
+      </c>
+      <c r="G18">
+        <v>0.1871130102523656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06009021782589573</v>
+        <v>-0.05890648309320906</v>
       </c>
       <c r="C20">
-        <v>0.1092060626080602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1058462349545953</v>
+      </c>
+      <c r="D20">
+        <v>0.009393111984216339</v>
+      </c>
+      <c r="E20">
+        <v>-0.05579100300519386</v>
+      </c>
+      <c r="F20">
+        <v>-0.06595476403097759</v>
+      </c>
+      <c r="G20">
+        <v>-0.05518008458464965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04461732292323276</v>
+        <v>-0.04655248085697084</v>
       </c>
       <c r="C21">
-        <v>0.07077731316007342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06679677922946814</v>
+      </c>
+      <c r="D21">
+        <v>-0.01131203567130867</v>
+      </c>
+      <c r="E21">
+        <v>-0.02468717376780543</v>
+      </c>
+      <c r="F21">
+        <v>-0.06741132219774883</v>
+      </c>
+      <c r="G21">
+        <v>-0.07906891133601343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04487481815679006</v>
+        <v>-0.04493529356406849</v>
       </c>
       <c r="C22">
-        <v>0.03926623530103805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04327623565055801</v>
+      </c>
+      <c r="D22">
+        <v>-0.09024644922729223</v>
+      </c>
+      <c r="E22">
+        <v>0.1689200370074739</v>
+      </c>
+      <c r="F22">
+        <v>0.1024231375361208</v>
+      </c>
+      <c r="G22">
+        <v>-0.0308586797760968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04488513508568907</v>
+        <v>-0.04494427137058572</v>
       </c>
       <c r="C23">
-        <v>0.03925939223292526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04327029933549069</v>
+      </c>
+      <c r="D23">
+        <v>-0.09029208248452905</v>
+      </c>
+      <c r="E23">
+        <v>0.1689502439376581</v>
+      </c>
+      <c r="F23">
+        <v>0.1024841597962388</v>
+      </c>
+      <c r="G23">
+        <v>-0.03086988318789749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06520897567465007</v>
+        <v>-0.06364011755381019</v>
       </c>
       <c r="C24">
-        <v>0.1409688378029894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1374034817611954</v>
+      </c>
+      <c r="D24">
+        <v>-0.009109737103438851</v>
+      </c>
+      <c r="E24">
+        <v>-0.0362046667729364</v>
+      </c>
+      <c r="F24">
+        <v>-0.07521003044213433</v>
+      </c>
+      <c r="G24">
+        <v>-0.06357631723818198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0749445844946868</v>
+        <v>-0.07194614258308708</v>
       </c>
       <c r="C25">
-        <v>0.1227798849645095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1208948556898264</v>
+      </c>
+      <c r="D25">
+        <v>-0.01255978594884858</v>
+      </c>
+      <c r="E25">
+        <v>-0.06523950813968536</v>
+      </c>
+      <c r="F25">
+        <v>-0.08722881389775376</v>
+      </c>
+      <c r="G25">
+        <v>-0.08496698013106087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05955922378614776</v>
+        <v>-0.06292733687225388</v>
       </c>
       <c r="C26">
-        <v>0.07267748938110466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07660587577930517</v>
+      </c>
+      <c r="D26">
+        <v>-0.03477179405913408</v>
+      </c>
+      <c r="E26">
+        <v>-0.0721830541257389</v>
+      </c>
+      <c r="F26">
+        <v>-0.06045099299448397</v>
+      </c>
+      <c r="G26">
+        <v>-0.1242296334376079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1694645006550822</v>
+        <v>-0.1740059973902179</v>
       </c>
       <c r="C28">
-        <v>-0.2273385576205498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2297828642738075</v>
+      </c>
+      <c r="D28">
+        <v>-0.0886267709936444</v>
+      </c>
+      <c r="E28">
+        <v>-0.1163127775886745</v>
+      </c>
+      <c r="F28">
+        <v>-0.05390811607627422</v>
+      </c>
+      <c r="G28">
+        <v>-0.09008765580605309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02519772666662152</v>
+        <v>-0.02641618727335406</v>
       </c>
       <c r="C29">
-        <v>0.05551963777653816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05585065472923881</v>
+      </c>
+      <c r="D29">
+        <v>-0.04980785649789988</v>
+      </c>
+      <c r="E29">
+        <v>-0.02768048618047208</v>
+      </c>
+      <c r="F29">
+        <v>-0.04459805142104872</v>
+      </c>
+      <c r="G29">
+        <v>-0.05167475428964238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02676629044252392</v>
+        <v>-0.03080171343445712</v>
       </c>
       <c r="C30">
-        <v>0.0692069052598706</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07454253552111238</v>
+      </c>
+      <c r="D30">
+        <v>0.04277471508110037</v>
+      </c>
+      <c r="E30">
+        <v>-0.109384567580093</v>
+      </c>
+      <c r="F30">
+        <v>-0.09656536890689574</v>
+      </c>
+      <c r="G30">
+        <v>-0.02510486563133817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05538093728075726</v>
+        <v>-0.05408517154453835</v>
       </c>
       <c r="C31">
-        <v>0.03382719203663071</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03632782645075921</v>
+      </c>
+      <c r="D31">
+        <v>-0.02272677847490143</v>
+      </c>
+      <c r="E31">
+        <v>0.04100850290335166</v>
+      </c>
+      <c r="F31">
+        <v>-0.03112680422279185</v>
+      </c>
+      <c r="G31">
+        <v>-0.04045187150442393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04070683261401601</v>
+        <v>-0.04481852892276136</v>
       </c>
       <c r="C32">
-        <v>0.0517054787174873</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.04851805924155746</v>
+      </c>
+      <c r="D32">
+        <v>0.006983376277991771</v>
+      </c>
+      <c r="E32">
+        <v>-0.04735984766726652</v>
+      </c>
+      <c r="F32">
+        <v>-0.004402903777652274</v>
+      </c>
+      <c r="G32">
+        <v>-0.03850047638014715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.077550782237684</v>
+        <v>-0.08157786499123931</v>
       </c>
       <c r="C33">
-        <v>0.1159321733260498</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1242555739367077</v>
+      </c>
+      <c r="D33">
+        <v>-0.02002916634744932</v>
+      </c>
+      <c r="E33">
+        <v>-0.03791510218875168</v>
+      </c>
+      <c r="F33">
+        <v>-0.04731973894720395</v>
+      </c>
+      <c r="G33">
+        <v>-0.02628372462473845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05317892964842757</v>
+        <v>-0.05222511515278394</v>
       </c>
       <c r="C34">
-        <v>0.1257957261871379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1250219280311913</v>
+      </c>
+      <c r="D34">
+        <v>0.0124604682948454</v>
+      </c>
+      <c r="E34">
+        <v>-0.0140064030453292</v>
+      </c>
+      <c r="F34">
+        <v>-0.05363031570430119</v>
+      </c>
+      <c r="G34">
+        <v>-0.1396730801310148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02653237685905192</v>
+        <v>-0.02886685940635123</v>
       </c>
       <c r="C35">
-        <v>0.01627701282729477</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.01967341834590546</v>
+      </c>
+      <c r="D35">
+        <v>-0.008603736667819471</v>
+      </c>
+      <c r="E35">
+        <v>-0.0177331443293006</v>
+      </c>
+      <c r="F35">
+        <v>-0.006010027019341435</v>
+      </c>
+      <c r="G35">
+        <v>-0.03931233291209474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02490077287821585</v>
+        <v>-0.0275483158410525</v>
       </c>
       <c r="C36">
-        <v>0.05422399646359771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05238899356705961</v>
+      </c>
+      <c r="D36">
+        <v>0.02083828385108561</v>
+      </c>
+      <c r="E36">
+        <v>0.01255202429214896</v>
+      </c>
+      <c r="F36">
+        <v>-0.002912236539570966</v>
+      </c>
+      <c r="G36">
+        <v>-0.1130365906868365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005411810384337325</v>
+        <v>-0.004999289170521119</v>
       </c>
       <c r="C37">
-        <v>-0.0004225908157804619</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.00687317370595866</v>
+      </c>
+      <c r="D37">
+        <v>-0.008178351136176631</v>
+      </c>
+      <c r="E37">
+        <v>-0.005368947422893244</v>
+      </c>
+      <c r="F37">
+        <v>-0.01270008372247663</v>
+      </c>
+      <c r="G37">
+        <v>0.005762464580893936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08152816693394617</v>
+        <v>-0.07632426636870772</v>
       </c>
       <c r="C39">
-        <v>0.1490756175407786</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.142733898679461</v>
+      </c>
+      <c r="D39">
+        <v>-0.06872405581212891</v>
+      </c>
+      <c r="E39">
+        <v>-0.04742519811167938</v>
+      </c>
+      <c r="F39">
+        <v>-0.09237385025948797</v>
+      </c>
+      <c r="G39">
+        <v>-0.1674542023356072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05429252703901953</v>
+        <v>-0.05575906633953878</v>
       </c>
       <c r="C40">
-        <v>0.07529079008298963</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08143444365903291</v>
+      </c>
+      <c r="D40">
+        <v>-0.01381220570923748</v>
+      </c>
+      <c r="E40">
+        <v>-0.06981830892131762</v>
+      </c>
+      <c r="F40">
+        <v>0.01610032660493693</v>
+      </c>
+      <c r="G40">
+        <v>-0.02277014005482931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03125919124024611</v>
+        <v>-0.03070471741643959</v>
       </c>
       <c r="C41">
-        <v>0.02362496686660997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02559043061984427</v>
+      </c>
+      <c r="D41">
+        <v>0.001267059530808928</v>
+      </c>
+      <c r="E41">
+        <v>-0.007433483993179668</v>
+      </c>
+      <c r="F41">
+        <v>0.01934225133864885</v>
+      </c>
+      <c r="G41">
+        <v>-0.00908330544061225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04552902631813664</v>
+        <v>-0.04322718949337864</v>
       </c>
       <c r="C43">
-        <v>0.04089234151579477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03887411771080263</v>
+      </c>
+      <c r="D43">
+        <v>-0.0365737200693046</v>
+      </c>
+      <c r="E43">
+        <v>0.02732334016952999</v>
+      </c>
+      <c r="F43">
+        <v>0.001386753718112606</v>
+      </c>
+      <c r="G43">
+        <v>-0.04879561190679943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05605053888805236</v>
+        <v>-0.06032031950897516</v>
       </c>
       <c r="C44">
-        <v>0.09706618864242492</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.0986040764345419</v>
+      </c>
+      <c r="D44">
+        <v>0.08792057119059327</v>
+      </c>
+      <c r="E44">
+        <v>-0.07813608108933154</v>
+      </c>
+      <c r="F44">
+        <v>-0.1050868282262954</v>
+      </c>
+      <c r="G44">
+        <v>-0.117309279906957</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0009819556408721714</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0006810782884698424</v>
+      </c>
+      <c r="D45">
+        <v>-0.0005618937041556015</v>
+      </c>
+      <c r="E45">
+        <v>0.001768836175973947</v>
+      </c>
+      <c r="F45">
+        <v>-0.006792314588951403</v>
+      </c>
+      <c r="G45">
+        <v>0.006771855005528265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02978831418110059</v>
+        <v>-0.03023675343981809</v>
       </c>
       <c r="C46">
-        <v>0.04561611457211338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04365958769084127</v>
+      </c>
+      <c r="D46">
+        <v>-0.05949413963724639</v>
+      </c>
+      <c r="E46">
+        <v>-0.002739512295853278</v>
+      </c>
+      <c r="F46">
+        <v>-0.04703292286546989</v>
+      </c>
+      <c r="G46">
+        <v>-0.06458331044334824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05738891693802642</v>
+        <v>-0.05481594566585123</v>
       </c>
       <c r="C47">
-        <v>0.04676525941579315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0453819221856023</v>
+      </c>
+      <c r="D47">
+        <v>-0.03521539850144474</v>
+      </c>
+      <c r="E47">
+        <v>0.0931789872369732</v>
+      </c>
+      <c r="F47">
+        <v>0.03509927434023289</v>
+      </c>
+      <c r="G47">
+        <v>0.03026845790335296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04872425635002613</v>
+        <v>-0.05030474622879659</v>
       </c>
       <c r="C48">
-        <v>0.06601251113492407</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06597791131127893</v>
+      </c>
+      <c r="D48">
+        <v>-0.008060520495616334</v>
+      </c>
+      <c r="E48">
+        <v>-0.03319700945492832</v>
+      </c>
+      <c r="F48">
+        <v>-0.08204041699572605</v>
+      </c>
+      <c r="G48">
+        <v>-0.03037803667843823</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1799771140194162</v>
+        <v>-0.1880912036870541</v>
       </c>
       <c r="C49">
-        <v>-0.03120494091355674</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02707938405457302</v>
+      </c>
+      <c r="D49">
+        <v>0.06928793893341217</v>
+      </c>
+      <c r="E49">
+        <v>-0.1071445343499896</v>
+      </c>
+      <c r="F49">
+        <v>0.001668337788983912</v>
+      </c>
+      <c r="G49">
+        <v>0.1340900931776116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05398122894001291</v>
+        <v>-0.0534769526047473</v>
       </c>
       <c r="C50">
-        <v>0.03547288078424777</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03807587642473285</v>
+      </c>
+      <c r="D50">
+        <v>-0.004551841323491634</v>
+      </c>
+      <c r="E50">
+        <v>0.03485232908789863</v>
+      </c>
+      <c r="F50">
+        <v>-0.0430935244547361</v>
+      </c>
+      <c r="G50">
+        <v>-0.0348314768649181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1405714046819476</v>
+        <v>-0.1364341342436322</v>
       </c>
       <c r="C52">
-        <v>0.03685054938377174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.0338566200534122</v>
+      </c>
+      <c r="D52">
+        <v>0.0612812288980245</v>
+      </c>
+      <c r="E52">
+        <v>0.1459990809470611</v>
+      </c>
+      <c r="F52">
+        <v>-0.02703119396411123</v>
+      </c>
+      <c r="G52">
+        <v>-0.05860294338867297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1668691525681347</v>
+        <v>-0.161084313918366</v>
       </c>
       <c r="C53">
-        <v>-0.007303899010868678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.006645539422635037</v>
+      </c>
+      <c r="D53">
+        <v>0.08970371744264811</v>
+      </c>
+      <c r="E53">
+        <v>0.1947815161702865</v>
+      </c>
+      <c r="F53">
+        <v>-0.03897526195732001</v>
+      </c>
+      <c r="G53">
+        <v>0.03499180662890833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01393041934697293</v>
+        <v>-0.01500870356199585</v>
       </c>
       <c r="C54">
-        <v>0.04304354127580992</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04311541705162477</v>
+      </c>
+      <c r="D54">
+        <v>-0.01605634805269698</v>
+      </c>
+      <c r="E54">
+        <v>-0.02658811700212196</v>
+      </c>
+      <c r="F54">
+        <v>-0.04817302999627009</v>
+      </c>
+      <c r="G54">
+        <v>-0.07472679351593485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1223794853810938</v>
+        <v>-0.1208814761276516</v>
       </c>
       <c r="C55">
-        <v>0.01475652205645186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01454523291129013</v>
+      </c>
+      <c r="D55">
+        <v>0.0336479258555655</v>
+      </c>
+      <c r="E55">
+        <v>0.1936525346317974</v>
+      </c>
+      <c r="F55">
+        <v>-0.0699905007207039</v>
+      </c>
+      <c r="G55">
+        <v>-0.0725682689599574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1823919106598128</v>
+        <v>-0.1775103881931579</v>
       </c>
       <c r="C56">
-        <v>-0.0116291771942955</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01363075421841262</v>
+      </c>
+      <c r="D56">
+        <v>0.100741807601212</v>
+      </c>
+      <c r="E56">
+        <v>0.2229071355274368</v>
+      </c>
+      <c r="F56">
+        <v>-0.01517434881295266</v>
+      </c>
+      <c r="G56">
+        <v>0.04206367040630422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0410110070696757</v>
+        <v>-0.04097974124907827</v>
       </c>
       <c r="C58">
-        <v>0.09741808574134232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1083935074123595</v>
+      </c>
+      <c r="D58">
+        <v>-0.04135393645088451</v>
+      </c>
+      <c r="E58">
+        <v>-0.01936080890226529</v>
+      </c>
+      <c r="F58">
+        <v>-0.02856457935916628</v>
+      </c>
+      <c r="G58">
+        <v>-0.04173937660979702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1783847346628117</v>
+        <v>-0.1850002747548569</v>
       </c>
       <c r="C59">
-        <v>-0.161087147903746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1681160117010093</v>
+      </c>
+      <c r="D59">
+        <v>-0.1134625106955799</v>
+      </c>
+      <c r="E59">
+        <v>-0.05703290560212175</v>
+      </c>
+      <c r="F59">
+        <v>0.0009497988737755691</v>
+      </c>
+      <c r="G59">
+        <v>-0.08409046578088065</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2069869295694523</v>
+        <v>-0.2055919609705538</v>
       </c>
       <c r="C60">
-        <v>0.006572116528510734</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.009934937961257365</v>
+      </c>
+      <c r="D60">
+        <v>0.07597357207173769</v>
+      </c>
+      <c r="E60">
+        <v>0.008936410600900014</v>
+      </c>
+      <c r="F60">
+        <v>0.07538618045317573</v>
+      </c>
+      <c r="G60">
+        <v>0.2062191337047219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05935626651441427</v>
+        <v>-0.05822698315911824</v>
       </c>
       <c r="C61">
-        <v>0.1301291567200601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.126221817861851</v>
+      </c>
+      <c r="D61">
+        <v>-0.03495441772525849</v>
+      </c>
+      <c r="E61">
+        <v>-0.0663089339669914</v>
+      </c>
+      <c r="F61">
+        <v>-0.0576870269389921</v>
+      </c>
+      <c r="G61">
+        <v>-0.1043037614371207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1723100897785844</v>
+        <v>-0.168498836823972</v>
       </c>
       <c r="C62">
-        <v>-0.008467469096471881</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.009566356240194454</v>
+      </c>
+      <c r="D62">
+        <v>0.07568975966934306</v>
+      </c>
+      <c r="E62">
+        <v>0.2020149357192506</v>
+      </c>
+      <c r="F62">
+        <v>-0.003776744669020892</v>
+      </c>
+      <c r="G62">
+        <v>-0.006101888186168558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04219732043423066</v>
+        <v>-0.04469620923311491</v>
       </c>
       <c r="C63">
-        <v>0.07676791138942861</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0808628510241635</v>
+      </c>
+      <c r="D63">
+        <v>-0.02053408617820361</v>
+      </c>
+      <c r="E63">
+        <v>-0.03172517780152263</v>
+      </c>
+      <c r="F63">
+        <v>-0.01459278735236546</v>
+      </c>
+      <c r="G63">
+        <v>-0.1030254683484583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1132464999837431</v>
+        <v>-0.111251010637709</v>
       </c>
       <c r="C64">
-        <v>0.06179543871837933</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06313617292410417</v>
+      </c>
+      <c r="D64">
+        <v>0.05559508161384118</v>
+      </c>
+      <c r="E64">
+        <v>0.005885755514336804</v>
+      </c>
+      <c r="F64">
+        <v>-0.002577692111517366</v>
+      </c>
+      <c r="G64">
+        <v>0.01352814880659332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1550320256263484</v>
+        <v>-0.1586463973790374</v>
       </c>
       <c r="C65">
-        <v>-0.05602856902876613</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04512641023789835</v>
+      </c>
+      <c r="D65">
+        <v>0.02472686524539199</v>
+      </c>
+      <c r="E65">
+        <v>0.05179409925655025</v>
+      </c>
+      <c r="F65">
+        <v>-0.04249563195005002</v>
+      </c>
+      <c r="G65">
+        <v>0.1374533739388693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09803634691462593</v>
+        <v>-0.09358568723652934</v>
       </c>
       <c r="C66">
-        <v>0.126952481710641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1250139799703883</v>
+      </c>
+      <c r="D66">
+        <v>-0.03848621212000106</v>
+      </c>
+      <c r="E66">
+        <v>-0.05592447999686676</v>
+      </c>
+      <c r="F66">
+        <v>-0.06559292586327019</v>
+      </c>
+      <c r="G66">
+        <v>-0.1481260847714287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04968294959000083</v>
+        <v>-0.04312452661711613</v>
       </c>
       <c r="C67">
-        <v>0.08599117583829466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07838632083126336</v>
+      </c>
+      <c r="D67">
+        <v>-0.0407933463202616</v>
+      </c>
+      <c r="E67">
+        <v>0.06334376367289768</v>
+      </c>
+      <c r="F67">
+        <v>0.04554897210726419</v>
+      </c>
+      <c r="G67">
+        <v>-0.02884465971098813</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1463299535306053</v>
+        <v>-0.1463411201039435</v>
       </c>
       <c r="C68">
-        <v>-0.2608794830076642</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2546120193028025</v>
+      </c>
+      <c r="D68">
+        <v>-0.06742505038499849</v>
+      </c>
+      <c r="E68">
+        <v>-0.1191907529089622</v>
+      </c>
+      <c r="F68">
+        <v>-0.09915812932194062</v>
+      </c>
+      <c r="G68">
+        <v>-0.0258629274314014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03861122615805082</v>
+        <v>-0.0364258043837051</v>
       </c>
       <c r="C69">
-        <v>0.02490844890760314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02781498282338521</v>
+      </c>
+      <c r="D69">
+        <v>0.008694507370662</v>
+      </c>
+      <c r="E69">
+        <v>0.06154053274794204</v>
+      </c>
+      <c r="F69">
+        <v>0.03652854581527727</v>
+      </c>
+      <c r="G69">
+        <v>-0.02815161969585273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07824026580153143</v>
+        <v>-0.07678845972563393</v>
       </c>
       <c r="C70">
-        <v>0.1044627568203149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.1066629627585537</v>
+      </c>
+      <c r="D70">
+        <v>-0.05399756650285903</v>
+      </c>
+      <c r="E70">
+        <v>-0.09629717147663211</v>
+      </c>
+      <c r="F70">
+        <v>0.003480796386427202</v>
+      </c>
+      <c r="G70">
+        <v>0.0390754525310659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1676883753714552</v>
+        <v>-0.1698484272900529</v>
       </c>
       <c r="C71">
-        <v>-0.2615453209091861</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.258797308506528</v>
+      </c>
+      <c r="D71">
+        <v>-0.07914637936777134</v>
+      </c>
+      <c r="E71">
+        <v>-0.1321806033011339</v>
+      </c>
+      <c r="F71">
+        <v>-0.08800206432662713</v>
+      </c>
+      <c r="G71">
+        <v>-0.004684293791233776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1423711889458271</v>
+        <v>-0.1477572793651622</v>
       </c>
       <c r="C72">
-        <v>0.01215562200070314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.0103509167091984</v>
+      </c>
+      <c r="D72">
+        <v>0.01161337568969188</v>
+      </c>
+      <c r="E72">
+        <v>0.1142545676141194</v>
+      </c>
+      <c r="F72">
+        <v>0.0004575408132934632</v>
+      </c>
+      <c r="G72">
+        <v>-0.04770538715958892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1864866047539042</v>
+        <v>-0.1969754793510114</v>
       </c>
       <c r="C73">
-        <v>0.02551575132458415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.0285311477410712</v>
+      </c>
+      <c r="D73">
+        <v>0.0671698987601394</v>
+      </c>
+      <c r="E73">
+        <v>0.03851284803075723</v>
+      </c>
+      <c r="F73">
+        <v>0.0466133330320401</v>
+      </c>
+      <c r="G73">
+        <v>0.05703476886313415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07916097077524498</v>
+        <v>-0.07997043680151264</v>
       </c>
       <c r="C74">
-        <v>0.005945703226436643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01156512694924547</v>
+      </c>
+      <c r="D74">
+        <v>0.08627322600448348</v>
+      </c>
+      <c r="E74">
+        <v>0.09077931253212101</v>
+      </c>
+      <c r="F74">
+        <v>-0.001534093068542205</v>
+      </c>
+      <c r="G74">
+        <v>0.00315282764814306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1222295125639788</v>
+        <v>-0.114765616967501</v>
       </c>
       <c r="C75">
-        <v>0.03003986075785471</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03019163665910892</v>
+      </c>
+      <c r="D75">
+        <v>0.03181344518180729</v>
+      </c>
+      <c r="E75">
+        <v>0.195043376667489</v>
+      </c>
+      <c r="F75">
+        <v>0.002520992785289847</v>
+      </c>
+      <c r="G75">
+        <v>0.008014624985710594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08078177660681272</v>
+        <v>-0.08814101619263048</v>
       </c>
       <c r="C77">
-        <v>0.1183614557450559</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1251840856647377</v>
+      </c>
+      <c r="D77">
+        <v>0.001368858254392806</v>
+      </c>
+      <c r="E77">
+        <v>-0.09267340334473156</v>
+      </c>
+      <c r="F77">
+        <v>-0.1449062660498651</v>
+      </c>
+      <c r="G77">
+        <v>0.1396427412276403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07218660196243896</v>
+        <v>-0.07910698484075537</v>
       </c>
       <c r="C78">
-        <v>0.1369417756147765</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1399794688467473</v>
+      </c>
+      <c r="D78">
+        <v>-0.07825334784360412</v>
+      </c>
+      <c r="E78">
+        <v>0.01293289565185672</v>
+      </c>
+      <c r="F78">
+        <v>-0.09784309161893501</v>
+      </c>
+      <c r="G78">
+        <v>0.217653307355957</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1709043461585444</v>
+        <v>-0.1662366765394553</v>
       </c>
       <c r="C79">
-        <v>0.02300289858227047</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02158457132418538</v>
+      </c>
+      <c r="D79">
+        <v>0.02340989368770894</v>
+      </c>
+      <c r="E79">
+        <v>0.1624027114216205</v>
+      </c>
+      <c r="F79">
+        <v>-0.01405880131722506</v>
+      </c>
+      <c r="G79">
+        <v>0.007341255944720693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07681761580247692</v>
+        <v>-0.07280820594508884</v>
       </c>
       <c r="C80">
-        <v>0.08008601090161233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07603852012365402</v>
+      </c>
+      <c r="D80">
+        <v>-0.04083947131386943</v>
+      </c>
+      <c r="E80">
+        <v>-0.09385152269557248</v>
+      </c>
+      <c r="F80">
+        <v>0.04166548700714679</v>
+      </c>
+      <c r="G80">
+        <v>-0.1199400467213853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1107026694484045</v>
+        <v>-0.1044528994442586</v>
       </c>
       <c r="C81">
-        <v>-0.00765199945485642</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.007101059719461085</v>
+      </c>
+      <c r="D81">
+        <v>0.01419185831591004</v>
+      </c>
+      <c r="E81">
+        <v>0.1815010777155955</v>
+      </c>
+      <c r="F81">
+        <v>0.05786786949754589</v>
+      </c>
+      <c r="G81">
+        <v>-0.001722202422730274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1624132223328187</v>
+        <v>-0.1583764015938852</v>
       </c>
       <c r="C82">
-        <v>-0.01826663323206596</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01563967923737612</v>
+      </c>
+      <c r="D82">
+        <v>0.1243767067116062</v>
+      </c>
+      <c r="E82">
+        <v>0.1698408563547834</v>
+      </c>
+      <c r="F82">
+        <v>0.001157095641411911</v>
+      </c>
+      <c r="G82">
+        <v>0.02136933379531414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05374564338607744</v>
+        <v>-0.05084235385090606</v>
       </c>
       <c r="C83">
-        <v>0.06248577026532832</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05623702109189627</v>
+      </c>
+      <c r="D83">
+        <v>-0.01850153415611491</v>
+      </c>
+      <c r="E83">
+        <v>-0.01546845416495617</v>
+      </c>
+      <c r="F83">
+        <v>0.01235926394369662</v>
+      </c>
+      <c r="G83">
+        <v>-0.05264620446388874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04843087248759033</v>
+        <v>-0.04750985372722377</v>
       </c>
       <c r="C84">
-        <v>0.07668172649954665</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07485549925632043</v>
+      </c>
+      <c r="D84">
+        <v>-0.0168247666126411</v>
+      </c>
+      <c r="E84">
+        <v>0.01658738271617653</v>
+      </c>
+      <c r="F84">
+        <v>-0.03806514455967341</v>
+      </c>
+      <c r="G84">
+        <v>-0.06136820904300643</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1394451207920529</v>
+        <v>-0.1347140114780194</v>
       </c>
       <c r="C85">
-        <v>0.007130312936355968</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.006272202922911456</v>
+      </c>
+      <c r="D85">
+        <v>0.05846177122159851</v>
+      </c>
+      <c r="E85">
+        <v>0.1611676047748525</v>
+      </c>
+      <c r="F85">
+        <v>-0.0507236678361974</v>
+      </c>
+      <c r="G85">
+        <v>-0.01747151497274034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08481232744304371</v>
+        <v>-0.085034047360754</v>
       </c>
       <c r="C86">
-        <v>0.1507655426867649</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1573221029926719</v>
+      </c>
+      <c r="D86">
+        <v>-0.837878808469732</v>
+      </c>
+      <c r="E86">
+        <v>0.1040450983461257</v>
+      </c>
+      <c r="F86">
+        <v>0.2849145399703444</v>
+      </c>
+      <c r="G86">
+        <v>0.101423139636712</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08548149480005252</v>
+        <v>-0.08104189972622422</v>
       </c>
       <c r="C87">
-        <v>0.1011401168708962</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.0970665625665813</v>
+      </c>
+      <c r="D87">
+        <v>0.05927644275604186</v>
+      </c>
+      <c r="E87">
+        <v>-0.2625123643910509</v>
+      </c>
+      <c r="F87">
+        <v>-0.09377054698881125</v>
+      </c>
+      <c r="G87">
+        <v>-0.01102258406723576</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05960520744358633</v>
+        <v>-0.05914184598893801</v>
       </c>
       <c r="C88">
-        <v>0.06461093311592227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06471460874766391</v>
+      </c>
+      <c r="D88">
+        <v>0.02036968094414483</v>
+      </c>
+      <c r="E88">
+        <v>0.04090856569100185</v>
+      </c>
+      <c r="F88">
+        <v>-0.00022068936829262</v>
+      </c>
+      <c r="G88">
+        <v>0.012075340285283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1528807676583773</v>
+        <v>-0.1512706725765853</v>
       </c>
       <c r="C89">
-        <v>-0.2042261965259717</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.209889281828723</v>
+      </c>
+      <c r="D89">
+        <v>-0.03331468251317574</v>
+      </c>
+      <c r="E89">
+        <v>-0.09122074423097755</v>
+      </c>
+      <c r="F89">
+        <v>-0.04400061840080251</v>
+      </c>
+      <c r="G89">
+        <v>-0.015329708808233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1869953011069177</v>
+        <v>-0.1881247453874275</v>
       </c>
       <c r="C90">
-        <v>-0.2473970710918299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2463084014086763</v>
+      </c>
+      <c r="D90">
+        <v>-0.0889335568188309</v>
+      </c>
+      <c r="E90">
+        <v>-0.1696864074775215</v>
+      </c>
+      <c r="F90">
+        <v>-0.05379260644172282</v>
+      </c>
+      <c r="G90">
+        <v>0.05958600141373232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1244609273702906</v>
+        <v>-0.1185122991634813</v>
       </c>
       <c r="C91">
-        <v>-0.01241436511697497</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0123763520888293</v>
+      </c>
+      <c r="D91">
+        <v>0.01250061451379419</v>
+      </c>
+      <c r="E91">
+        <v>0.200076332644986</v>
+      </c>
+      <c r="F91">
+        <v>0.06677726522436464</v>
+      </c>
+      <c r="G91">
+        <v>-0.0347447620844905</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1749170195548753</v>
+        <v>-0.1752408392367587</v>
       </c>
       <c r="C92">
-        <v>-0.2607131330991178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2724466935031484</v>
+      </c>
+      <c r="D92">
+        <v>-0.123828045739784</v>
+      </c>
+      <c r="E92">
+        <v>-0.1258513608883554</v>
+      </c>
+      <c r="F92">
+        <v>-0.1110251241232722</v>
+      </c>
+      <c r="G92">
+        <v>-0.09654785624312763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.18171634656145</v>
+        <v>-0.1877751102486059</v>
       </c>
       <c r="C93">
-        <v>-0.2304113678061937</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2314646606613966</v>
+      </c>
+      <c r="D93">
+        <v>-0.07195059920829903</v>
+      </c>
+      <c r="E93">
+        <v>-0.0587270917037389</v>
+      </c>
+      <c r="F93">
+        <v>-0.07356926533159729</v>
+      </c>
+      <c r="G93">
+        <v>-0.007654508375602249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1207745157262104</v>
+        <v>-0.1155154681283258</v>
       </c>
       <c r="C94">
-        <v>0.03611896748476216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03548948303670105</v>
+      </c>
+      <c r="D94">
+        <v>0.02219423152332715</v>
+      </c>
+      <c r="E94">
+        <v>0.1713288216186268</v>
+      </c>
+      <c r="F94">
+        <v>-0.00608197588636908</v>
+      </c>
+      <c r="G94">
+        <v>-0.02971788301372073</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1209273765649065</v>
+        <v>-0.1198087094031643</v>
       </c>
       <c r="C95">
-        <v>0.1058595247086101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1163271420187169</v>
+      </c>
+      <c r="D95">
+        <v>-0.05544394017882726</v>
+      </c>
+      <c r="E95">
+        <v>-0.05484010116022023</v>
+      </c>
+      <c r="F95">
+        <v>-0.06437605108887839</v>
+      </c>
+      <c r="G95">
+        <v>-0.09059694510255101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1269516965814814</v>
+        <v>-0.123679383194892</v>
       </c>
       <c r="C96">
-        <v>0.1092698967879544</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1128938632908111</v>
+      </c>
+      <c r="D96">
+        <v>0.03230805781603203</v>
+      </c>
+      <c r="E96">
+        <v>-0.006454093044154382</v>
+      </c>
+      <c r="F96">
+        <v>-0.05370598277640973</v>
+      </c>
+      <c r="G96">
+        <v>0.03371215182954498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1954471533732953</v>
+        <v>-0.2011101302831455</v>
       </c>
       <c r="C97">
-        <v>0.03008867292367063</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02198827564403973</v>
+      </c>
+      <c r="D97">
+        <v>0.2485555846793214</v>
+      </c>
+      <c r="E97">
+        <v>-0.2378891016472977</v>
+      </c>
+      <c r="F97">
+        <v>0.7685544390550687</v>
+      </c>
+      <c r="G97">
+        <v>-0.3464432465206462</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1985447198129028</v>
+        <v>-0.2056253146332439</v>
       </c>
       <c r="C98">
-        <v>0.01030017719377048</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01314773969983201</v>
+      </c>
+      <c r="D98">
+        <v>0.05648228710828726</v>
+      </c>
+      <c r="E98">
+        <v>-0.1143731672448884</v>
+      </c>
+      <c r="F98">
+        <v>0.1227500956932946</v>
+      </c>
+      <c r="G98">
+        <v>0.3149957072833528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05108997273875046</v>
+        <v>-0.05106399965050087</v>
       </c>
       <c r="C99">
-        <v>0.0580712071937039</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05752572897241662</v>
+      </c>
+      <c r="D99">
+        <v>-0.0007891426990327545</v>
+      </c>
+      <c r="E99">
+        <v>-0.0347099242814469</v>
+      </c>
+      <c r="F99">
+        <v>-0.03904174196034393</v>
+      </c>
+      <c r="G99">
+        <v>-0.009695472279953415</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.116091002305856</v>
+        <v>-0.1111186177649071</v>
       </c>
       <c r="C100">
-        <v>0.2737185614015668</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2635020165505245</v>
+      </c>
+      <c r="D100">
+        <v>0.07619590116620134</v>
+      </c>
+      <c r="E100">
+        <v>-0.3175796779815546</v>
+      </c>
+      <c r="F100">
+        <v>0.1308286903488029</v>
+      </c>
+      <c r="G100">
+        <v>0.5044910608791727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0252241723969911</v>
+        <v>-0.02641196559307436</v>
       </c>
       <c r="C101">
-        <v>0.05481196081138873</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05522599728016885</v>
+      </c>
+      <c r="D101">
+        <v>-0.04916941901813015</v>
+      </c>
+      <c r="E101">
+        <v>-0.02494685052585524</v>
+      </c>
+      <c r="F101">
+        <v>-0.04244921357316984</v>
+      </c>
+      <c r="G101">
+        <v>-0.04738310013721522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
